--- a/testcase/Weight.xlsx
+++ b/testcase/Weight.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17688" windowHeight="3936"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -24,62 +25,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>太空威胁因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁威胁因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击意图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击紧迫性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标搜索能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息传输能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索干扰能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信干扰能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A*B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A*C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B*C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>海面、水下、天空目标威胁因素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太空威胁因素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁威胁因素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击意图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击紧迫性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标搜索能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息传输能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索干扰能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信干扰能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A*B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A*C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B*C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,7 +137,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,7 +426,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -438,13 +439,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,7 +464,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>-7</v>
@@ -477,7 +478,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -491,7 +492,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -505,7 +506,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>-4</v>
@@ -519,7 +520,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -533,7 +534,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -547,7 +548,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -561,7 +562,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -575,7 +576,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -589,7 +590,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
